--- a/INTLINE/data/566/PHSA/MISSI/Producer Price Index_historical.xlsx
+++ b/INTLINE/data/566/PHSA/MISSI/Producer Price Index_historical.xlsx
@@ -2997,16 +2997,19 @@
         <v>92.82971734905948</v>
       </c>
       <c r="KC2">
-        <v>93.01640306265153</v>
+        <v>93.01237446732021</v>
       </c>
       <c r="KD2">
-        <v>94.03757232969527</v>
+        <v>94.03417444534722</v>
       </c>
       <c r="KE2">
-        <v>94.6466586966996</v>
+        <v>94.68588880800084</v>
       </c>
       <c r="KF2">
-        <v>95.32057120193257</v>
+        <v>95.36384422810475</v>
+      </c>
+      <c r="KG2">
+        <v>95.91668459714927</v>
       </c>
     </row>
   </sheetData>
